--- a/biology/Médecine/1842_en_santé_et_médecine/1842_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1842_en_santé_et_médecine/1842_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1842_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1842_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1842 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1842_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1842_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>30 mars : le médecin américain Crawford Long utilise l’éther pour la première fois afin de retirer une tumeur du cou d’un de ses patients, James M. Venable, en lui faisant simplement respirer une serviette imbibée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 mars : le médecin américain Crawford Long utilise l’éther pour la première fois afin de retirer une tumeur du cou d’un de ses patients, James M. Venable, en lui faisant simplement respirer une serviette imbibée.
 25 juillet : naissance de Daniel Paul Schreber (mort en 1911), magistrat allemand dit le président Schreber, connu pour son ouvrage autobiographique : Mémoires d'un névropathe (Denkwürdigkeiten eines Nervenkranken, Leipzig, 1903), dans lequel il décrit l'histoire de son délire étudié comme un cas de paranoïa par plusieurs grands auteurs, dont, pour la psychanalyse, Sigmund Freud.
-Christian Doppler, mathématicien et physicien autrichien, propose une explication de la modification de la fréquence du son perçu par un observateur immobile lorsque la source sonore est en mouvement[2],[Note 1]. La médecine l'utilisera dans l'échographie Doppler.
-Fondation de la Société de Médecine de Nancy[3],[4].</t>
+Christian Doppler, mathématicien et physicien autrichien, propose une explication de la modification de la fréquence du son perçu par un observateur immobile lorsque la source sonore est en mouvement,[Note 1]. La médecine l'utilisera dans l'échographie Doppler.
+Fondation de la Société de Médecine de Nancy,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1842_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1842_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>15 janvier : Paul Lafargue (mort en 1911), journaliste, économiste, essayiste, écrivain, médecin et homme politique socialiste français.
 25 mars : Adolphe Piéchaud (mort en 1899), chirurgien et ophtalmologue français.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1842_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1842_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>12 juin : François-Joseph Double (né en 1776), médecin français.
 25 juillet : Dominique-Jean Larrey (né en 1766), médecin et chirurgien militaire français.</t>
